--- a/Store/wwwroot/Bd.xlsx
+++ b/Store/wwwroot/Bd.xlsx
@@ -26,19 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <x:si>
-    <x:t>Masha</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sdna</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hasd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>івап</x:t>
-  </x:si>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <x:si>
     <x:t>Sasha</x:t>
   </x:si>
@@ -47,6 +35,9 @@
   </x:si>
   <x:si>
     <x:t>Igor</x:t>
+  </x:si>
+  <x:si>
+    <x:t>івап</x:t>
   </x:si>
   <x:si>
     <x:t>фів</x:t>
@@ -437,43 +428,18 @@
       <x:c r="E2" s="1" t="s"/>
     </x:row>
     <x:row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <x:c r="A3" s="0" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D3" s="1">
-        <x:v>44935.9977777778</x:v>
-      </x:c>
-      <x:c r="E3" s="1">
-        <x:v>44936.1631001273</x:v>
-      </x:c>
-      <x:c r="F3" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="G3" s="0" t="n">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="H3" s="0" t="n">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="I3" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
+      <x:c r="D3" s="1" t="s"/>
+      <x:c r="E3" s="1" t="s"/>
     </x:row>
     <x:row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <x:c r="A4" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D4" s="1">
         <x:v>44936.006087963</x:v>
@@ -482,7 +448,7 @@
         <x:v>44936.0062641782</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G4" s="0" t="n">
         <x:v>12</x:v>
@@ -499,10 +465,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D5" s="1">
         <x:v>44936.0252813194</x:v>
@@ -511,7 +477,7 @@
         <x:v>44936.0252813194</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G5" s="0" t="n">
         <x:v>12</x:v>
@@ -520,7 +486,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I5" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -528,10 +494,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D6" s="1">
         <x:v>44936.0254050926</x:v>
@@ -540,7 +506,7 @@
         <x:v>44936.5306663773</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G6" s="0" t="n">
         <x:v>12</x:v>
@@ -549,7 +515,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I6" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -557,10 +523,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D7" s="1">
         <x:v>44936.0254104282</x:v>
@@ -569,7 +535,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G7" s="0" t="n">
         <x:v>12</x:v>
@@ -578,7 +544,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I7" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -586,10 +552,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D8" s="1">
         <x:v>44936.0254104282</x:v>
@@ -598,7 +564,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G8" s="0" t="n">
         <x:v>12</x:v>
@@ -607,7 +573,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I8" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -615,10 +581,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D9" s="1">
         <x:v>44936.0254104282</x:v>
@@ -627,7 +593,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G9" s="0" t="n">
         <x:v>12</x:v>
@@ -636,7 +602,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I9" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -644,10 +610,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D10" s="1">
         <x:v>44936.0254104282</x:v>
@@ -656,7 +622,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G10" s="0" t="n">
         <x:v>12</x:v>
@@ -665,7 +631,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I10" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -673,10 +639,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D11" s="1">
         <x:v>44936.0254104282</x:v>
@@ -685,7 +651,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F11" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G11" s="0" t="n">
         <x:v>12</x:v>
@@ -694,7 +660,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I11" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -706,10 +672,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D13" s="1">
         <x:v>44936.0254104282</x:v>
@@ -718,7 +684,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F13" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G13" s="0" t="n">
         <x:v>12</x:v>
@@ -727,7 +693,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I13" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -735,10 +701,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D14" s="1">
         <x:v>44936.0254104282</x:v>
@@ -747,7 +713,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F14" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G14" s="0" t="n">
         <x:v>12</x:v>
@@ -756,7 +722,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I14" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -764,10 +730,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D15" s="1">
         <x:v>44936.0254104282</x:v>
@@ -776,7 +742,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F15" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>12</x:v>
@@ -785,7 +751,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I15" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -797,10 +763,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D17" s="1">
         <x:v>44936.0254104282</x:v>
@@ -809,7 +775,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F17" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G17" s="0" t="n">
         <x:v>12</x:v>
@@ -818,7 +784,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I17" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:13" x14ac:dyDescent="0.3">
@@ -826,10 +792,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D18" s="1">
         <x:v>44936.0254104282</x:v>
@@ -838,7 +804,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F18" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G18" s="0" t="n">
         <x:v>12</x:v>
@@ -847,7 +813,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I18" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:13" x14ac:dyDescent="0.3">
@@ -855,10 +821,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D19" s="1">
         <x:v>44936.0254104282</x:v>
@@ -867,7 +833,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F19" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G19" s="0" t="n">
         <x:v>12</x:v>
@@ -876,7 +842,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I19" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:13" x14ac:dyDescent="0.3">
@@ -884,10 +850,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D20" s="1">
         <x:v>44936.0254104282</x:v>
@@ -896,7 +862,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F20" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G20" s="0" t="n">
         <x:v>12</x:v>
@@ -905,7 +871,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I20" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:13" x14ac:dyDescent="0.3">
@@ -913,10 +879,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D21" s="1">
         <x:v>44936.0254104282</x:v>
@@ -925,7 +891,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F21" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G21" s="0" t="n">
         <x:v>12</x:v>
@@ -934,7 +900,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I21" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:13" x14ac:dyDescent="0.3">
@@ -942,10 +908,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D22" s="1">
         <x:v>44936.0254104282</x:v>
@@ -954,7 +920,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F22" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G22" s="0" t="n">
         <x:v>12</x:v>
@@ -963,7 +929,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I22" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:13" x14ac:dyDescent="0.3">
@@ -971,10 +937,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D23" s="1">
         <x:v>44936.0254104282</x:v>
@@ -983,7 +949,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F23" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G23" s="0" t="n">
         <x:v>12</x:v>
@@ -992,7 +958,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I23" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:13" x14ac:dyDescent="0.3">
@@ -1000,10 +966,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D24" s="1">
         <x:v>44936.0254104282</x:v>
@@ -1012,7 +978,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F24" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G24" s="0" t="n">
         <x:v>12</x:v>
@@ -1021,7 +987,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I24" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:13" x14ac:dyDescent="0.3">
@@ -1029,10 +995,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D25" s="1">
         <x:v>44936.0254104282</x:v>
@@ -1041,7 +1007,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F25" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G25" s="0" t="n">
         <x:v>12</x:v>
@@ -1050,7 +1016,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I25" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:13" x14ac:dyDescent="0.3">
@@ -1058,10 +1024,10 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D26" s="1">
         <x:v>44936.0254104282</x:v>
@@ -1070,7 +1036,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F26" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G26" s="0" t="n">
         <x:v>12</x:v>
@@ -1079,7 +1045,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I26" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:13" x14ac:dyDescent="0.3">
@@ -1087,10 +1053,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D27" s="1">
         <x:v>44936.0254104282</x:v>
@@ -1099,7 +1065,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F27" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G27" s="0" t="n">
         <x:v>12</x:v>
@@ -1108,7 +1074,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I27" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:13" x14ac:dyDescent="0.3">
@@ -1116,10 +1082,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D28" s="1">
         <x:v>44936.0254104282</x:v>
@@ -1128,7 +1094,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F28" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G28" s="0" t="n">
         <x:v>12</x:v>
@@ -1137,7 +1103,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I28" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:13" x14ac:dyDescent="0.3">
@@ -1145,10 +1111,10 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D29" s="1">
         <x:v>44936.0254104282</x:v>
@@ -1157,7 +1123,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F29" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G29" s="0" t="n">
         <x:v>12</x:v>
@@ -1166,7 +1132,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I29" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:13" x14ac:dyDescent="0.3">
@@ -1174,10 +1140,10 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D30" s="1">
         <x:v>44936.0254104282</x:v>
@@ -1186,7 +1152,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F30" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G30" s="0" t="n">
         <x:v>12</x:v>
@@ -1195,7 +1161,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I30" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:13" x14ac:dyDescent="0.3">
@@ -1203,10 +1169,10 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D31" s="1">
         <x:v>44936.0254104282</x:v>
@@ -1215,7 +1181,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F31" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G31" s="0" t="n">
         <x:v>12</x:v>
@@ -1224,7 +1190,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I31" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:13" x14ac:dyDescent="0.3">
@@ -1232,10 +1198,10 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D32" s="1">
         <x:v>44936.0254104282</x:v>
@@ -1244,7 +1210,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F32" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G32" s="0" t="n">
         <x:v>12</x:v>
@@ -1253,7 +1219,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I32" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:13" x14ac:dyDescent="0.3">
@@ -1261,10 +1227,10 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C33" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D33" s="1">
         <x:v>44936.0254104282</x:v>
@@ -1273,7 +1239,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F33" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G33" s="0" t="n">
         <x:v>12</x:v>
@@ -1282,7 +1248,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I33" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:13" x14ac:dyDescent="0.3">
@@ -1290,10 +1256,10 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C34" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D34" s="1">
         <x:v>44936.0254104282</x:v>
@@ -1302,7 +1268,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F34" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G34" s="0" t="n">
         <x:v>12</x:v>
@@ -1311,7 +1277,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I34" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:13" x14ac:dyDescent="0.3">
@@ -1319,10 +1285,10 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C35" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D35" s="1">
         <x:v>44936.0254104282</x:v>
@@ -1331,7 +1297,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F35" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G35" s="0" t="n">
         <x:v>12</x:v>
@@ -1340,7 +1306,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I35" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:13" x14ac:dyDescent="0.3">
@@ -1348,10 +1314,10 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C36" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D36" s="1">
         <x:v>44936.0254104282</x:v>
@@ -1360,7 +1326,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F36" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G36" s="0" t="n">
         <x:v>12</x:v>
@@ -1369,7 +1335,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I36" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:13" x14ac:dyDescent="0.3">
@@ -1377,10 +1343,10 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C37" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D37" s="1">
         <x:v>44936.0254104282</x:v>
@@ -1389,7 +1355,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F37" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G37" s="0" t="n">
         <x:v>12</x:v>
@@ -1398,7 +1364,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I37" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:13" x14ac:dyDescent="0.3">
@@ -1406,10 +1372,10 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C38" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D38" s="1">
         <x:v>44936.0254104282</x:v>
@@ -1418,7 +1384,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F38" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G38" s="0" t="n">
         <x:v>12</x:v>
@@ -1427,7 +1393,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I38" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:13" x14ac:dyDescent="0.3">
@@ -1435,10 +1401,10 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C39" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D39" s="1">
         <x:v>44936.0254104282</x:v>
@@ -1447,7 +1413,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F39" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G39" s="0" t="n">
         <x:v>12</x:v>
@@ -1456,7 +1422,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I39" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:13" x14ac:dyDescent="0.3">
@@ -1464,10 +1430,10 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C40" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D40" s="1">
         <x:v>44936.0254104282</x:v>
@@ -1476,7 +1442,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F40" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G40" s="0" t="n">
         <x:v>12</x:v>
@@ -1485,7 +1451,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I40" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:13" x14ac:dyDescent="0.3">
@@ -1493,10 +1459,10 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C41" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D41" s="1">
         <x:v>44936.0254104282</x:v>
@@ -1505,7 +1471,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F41" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G41" s="0" t="n">
         <x:v>12</x:v>
@@ -1514,7 +1480,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I41" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:13" x14ac:dyDescent="0.3">
@@ -1522,10 +1488,10 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C42" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D42" s="1">
         <x:v>44936.0254104282</x:v>
@@ -1534,7 +1500,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F42" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G42" s="0" t="n">
         <x:v>12</x:v>
@@ -1543,7 +1509,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I42" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:13" x14ac:dyDescent="0.3">
@@ -1551,10 +1517,10 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C43" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D43" s="1">
         <x:v>44936.0254104282</x:v>
@@ -1563,7 +1529,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F43" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G43" s="0" t="n">
         <x:v>12</x:v>
@@ -1572,7 +1538,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I43" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:13" x14ac:dyDescent="0.3">
@@ -1580,10 +1546,10 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C44" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D44" s="1">
         <x:v>44936.0254104282</x:v>
@@ -1592,7 +1558,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F44" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G44" s="0" t="n">
         <x:v>12</x:v>
@@ -1601,7 +1567,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I44" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:13" x14ac:dyDescent="0.3">
@@ -1609,10 +1575,10 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C45" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D45" s="1">
         <x:v>44936.0254104282</x:v>
@@ -1621,7 +1587,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F45" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G45" s="0" t="n">
         <x:v>12</x:v>
@@ -1630,7 +1596,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I45" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:13" x14ac:dyDescent="0.3">
@@ -1638,10 +1604,10 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C46" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D46" s="1">
         <x:v>44936.0254104282</x:v>
@@ -1650,7 +1616,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F46" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G46" s="0" t="n">
         <x:v>12</x:v>
@@ -1659,7 +1625,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I46" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:13" x14ac:dyDescent="0.3">
@@ -1667,10 +1633,10 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C47" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D47" s="1">
         <x:v>44936.0254104282</x:v>
@@ -1679,7 +1645,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F47" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G47" s="0" t="n">
         <x:v>12</x:v>
@@ -1688,7 +1654,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I47" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:13" x14ac:dyDescent="0.3">
@@ -1696,10 +1662,10 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C48" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D48" s="1">
         <x:v>44936.0254104282</x:v>
@@ -1708,7 +1674,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F48" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G48" s="0" t="n">
         <x:v>12</x:v>
@@ -1717,7 +1683,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I48" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:13" x14ac:dyDescent="0.3">
@@ -1725,10 +1691,10 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C49" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D49" s="1">
         <x:v>44936.0254104282</x:v>
@@ -1737,7 +1703,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F49" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G49" s="0" t="n">
         <x:v>12</x:v>
@@ -1746,7 +1712,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I49" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:13" x14ac:dyDescent="0.3">
@@ -1754,10 +1720,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C50" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D50" s="1">
         <x:v>44936.0254104282</x:v>
@@ -1766,7 +1732,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F50" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G50" s="0" t="n">
         <x:v>12</x:v>
@@ -1775,7 +1741,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I50" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:13" x14ac:dyDescent="0.3">
@@ -1783,10 +1749,10 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C51" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D51" s="1">
         <x:v>44936.0254104282</x:v>
@@ -1795,7 +1761,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F51" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G51" s="0" t="n">
         <x:v>12</x:v>
@@ -1804,7 +1770,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I51" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:13" x14ac:dyDescent="0.3">
@@ -1812,10 +1778,10 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C52" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D52" s="1">
         <x:v>44936.0254104282</x:v>
@@ -1824,7 +1790,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F52" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G52" s="0" t="n">
         <x:v>12</x:v>
@@ -1833,7 +1799,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I52" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:13" x14ac:dyDescent="0.3">
@@ -1841,10 +1807,10 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C53" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D53" s="1">
         <x:v>44936.0254104282</x:v>
@@ -1853,7 +1819,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F53" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G53" s="0" t="n">
         <x:v>12</x:v>
@@ -1862,7 +1828,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I53" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:13" x14ac:dyDescent="0.3">
@@ -1870,10 +1836,10 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C54" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D54" s="1">
         <x:v>44936.0254104282</x:v>
@@ -1882,7 +1848,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F54" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G54" s="0" t="n">
         <x:v>12</x:v>
@@ -1891,7 +1857,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I54" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:13" x14ac:dyDescent="0.3">
@@ -1899,10 +1865,10 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C55" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D55" s="1">
         <x:v>44936.0254104282</x:v>
@@ -1911,7 +1877,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F55" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G55" s="0" t="n">
         <x:v>12</x:v>
@@ -1920,7 +1886,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I55" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:13" x14ac:dyDescent="0.3">
@@ -1928,10 +1894,10 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C56" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D56" s="1">
         <x:v>44936.0254104282</x:v>
@@ -1940,7 +1906,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F56" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G56" s="0" t="n">
         <x:v>12</x:v>
@@ -1949,7 +1915,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I56" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:13" x14ac:dyDescent="0.3">
@@ -1957,10 +1923,10 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C57" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D57" s="1">
         <x:v>44936.0254104282</x:v>
@@ -1969,7 +1935,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F57" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G57" s="0" t="n">
         <x:v>12</x:v>
@@ -1978,7 +1944,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I57" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:13" x14ac:dyDescent="0.3">
@@ -1986,10 +1952,10 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C58" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D58" s="1">
         <x:v>44936.0254104282</x:v>
@@ -1998,7 +1964,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F58" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G58" s="0" t="n">
         <x:v>12</x:v>
@@ -2007,7 +1973,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I58" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:13" x14ac:dyDescent="0.3">
@@ -2015,10 +1981,10 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C59" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D59" s="1">
         <x:v>44936.0254104282</x:v>
@@ -2027,7 +1993,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F59" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G59" s="0" t="n">
         <x:v>12</x:v>
@@ -2036,7 +2002,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I59" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:13" x14ac:dyDescent="0.3">
@@ -2044,10 +2010,10 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C60" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D60" s="1">
         <x:v>44936.0254104282</x:v>
@@ -2056,7 +2022,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F60" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G60" s="0" t="n">
         <x:v>12</x:v>
@@ -2065,7 +2031,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I60" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:13" x14ac:dyDescent="0.3">
@@ -2073,10 +2039,10 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C61" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D61" s="1">
         <x:v>44936.0254104282</x:v>
@@ -2085,7 +2051,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F61" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G61" s="0" t="n">
         <x:v>12</x:v>
@@ -2094,7 +2060,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I61" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:13" x14ac:dyDescent="0.3">
@@ -2102,10 +2068,10 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C62" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D62" s="1">
         <x:v>44936.0254104282</x:v>
@@ -2114,7 +2080,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F62" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G62" s="0" t="n">
         <x:v>12</x:v>
@@ -2123,7 +2089,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I62" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:13" x14ac:dyDescent="0.3">
@@ -2131,10 +2097,10 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C63" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D63" s="1">
         <x:v>44936.0254104282</x:v>
@@ -2143,7 +2109,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F63" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G63" s="0" t="n">
         <x:v>12</x:v>
@@ -2152,7 +2118,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I63" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:13" x14ac:dyDescent="0.3">
@@ -2160,10 +2126,10 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C64" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D64" s="1">
         <x:v>44936.0254104282</x:v>
@@ -2172,7 +2138,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F64" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G64" s="0" t="n">
         <x:v>12</x:v>
@@ -2181,7 +2147,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I64" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:13" x14ac:dyDescent="0.3">
@@ -2189,10 +2155,10 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C65" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D65" s="1">
         <x:v>44936.0254104282</x:v>
@@ -2201,7 +2167,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F65" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G65" s="0" t="n">
         <x:v>12</x:v>
@@ -2210,7 +2176,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I65" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:13" x14ac:dyDescent="0.3">
@@ -2218,10 +2184,10 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C66" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D66" s="1">
         <x:v>44936.0254104282</x:v>
@@ -2230,7 +2196,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F66" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G66" s="0" t="n">
         <x:v>12</x:v>
@@ -2239,7 +2205,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I66" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:13" x14ac:dyDescent="0.3">
@@ -2247,10 +2213,10 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="B67" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C67" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D67" s="1">
         <x:v>44936.0254104282</x:v>
@@ -2259,7 +2225,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F67" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G67" s="0" t="n">
         <x:v>12</x:v>
@@ -2268,7 +2234,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I67" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:13" x14ac:dyDescent="0.3">
@@ -2276,10 +2242,10 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="B68" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C68" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D68" s="1">
         <x:v>44936.0254104282</x:v>
@@ -2288,7 +2254,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F68" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G68" s="0" t="n">
         <x:v>12</x:v>
@@ -2297,7 +2263,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I68" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:13" x14ac:dyDescent="0.3">
@@ -2305,10 +2271,10 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="B69" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C69" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D69" s="1">
         <x:v>44936.0254104282</x:v>
@@ -2317,7 +2283,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F69" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G69" s="0" t="n">
         <x:v>12</x:v>
@@ -2326,7 +2292,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I69" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:13" x14ac:dyDescent="0.3">
@@ -2334,10 +2300,10 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="B70" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C70" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D70" s="1">
         <x:v>44936.0254104282</x:v>
@@ -2346,7 +2312,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F70" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G70" s="0" t="n">
         <x:v>12</x:v>
@@ -2355,7 +2321,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I70" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:13" x14ac:dyDescent="0.3">
@@ -2363,10 +2329,10 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="B71" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C71" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D71" s="1">
         <x:v>44936.0254104282</x:v>
@@ -2375,7 +2341,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F71" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G71" s="0" t="n">
         <x:v>12</x:v>
@@ -2384,7 +2350,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I71" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:13" x14ac:dyDescent="0.3">
@@ -2392,10 +2358,10 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="B72" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C72" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D72" s="1">
         <x:v>44936.0254104282</x:v>
@@ -2404,7 +2370,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F72" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G72" s="0" t="n">
         <x:v>12</x:v>
@@ -2413,7 +2379,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I72" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:13" x14ac:dyDescent="0.3">
@@ -2421,10 +2387,10 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="B73" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C73" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D73" s="1">
         <x:v>44936.0254104282</x:v>
@@ -2433,7 +2399,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F73" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G73" s="0" t="n">
         <x:v>12</x:v>
@@ -2442,7 +2408,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I73" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:13" x14ac:dyDescent="0.3">
@@ -2450,10 +2416,10 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="B74" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C74" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D74" s="1">
         <x:v>44936.0254104282</x:v>
@@ -2462,7 +2428,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F74" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G74" s="0" t="n">
         <x:v>12</x:v>
@@ -2471,7 +2437,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I74" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:13" x14ac:dyDescent="0.3">
@@ -2479,10 +2445,10 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="B75" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C75" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D75" s="1">
         <x:v>44936.0254104282</x:v>
@@ -2491,7 +2457,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F75" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G75" s="0" t="n">
         <x:v>12</x:v>
@@ -2500,7 +2466,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I75" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:13" x14ac:dyDescent="0.3">
@@ -2508,10 +2474,10 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="B76" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C76" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D76" s="1">
         <x:v>44936.0254104282</x:v>
@@ -2520,7 +2486,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F76" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G76" s="0" t="n">
         <x:v>12</x:v>
@@ -2529,7 +2495,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I76" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:13" x14ac:dyDescent="0.3">
@@ -2537,10 +2503,10 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="B77" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C77" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D77" s="1">
         <x:v>44936.0254104282</x:v>
@@ -2549,7 +2515,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F77" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G77" s="0" t="n">
         <x:v>12</x:v>
@@ -2558,7 +2524,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I77" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:13" x14ac:dyDescent="0.3">
@@ -2566,10 +2532,10 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="B78" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C78" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D78" s="1">
         <x:v>44936.0254104282</x:v>
@@ -2578,7 +2544,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F78" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G78" s="0" t="n">
         <x:v>12</x:v>
@@ -2587,7 +2553,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I78" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:13" x14ac:dyDescent="0.3">
@@ -2595,10 +2561,10 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="B79" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C79" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D79" s="1">
         <x:v>44936.0254104282</x:v>
@@ -2607,7 +2573,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F79" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G79" s="0" t="n">
         <x:v>12</x:v>
@@ -2616,7 +2582,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I79" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:13" x14ac:dyDescent="0.3">
@@ -2624,10 +2590,10 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="B80" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C80" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D80" s="1">
         <x:v>44936.0254104282</x:v>
@@ -2636,7 +2602,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F80" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G80" s="0" t="n">
         <x:v>12</x:v>
@@ -2645,7 +2611,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I80" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:13" x14ac:dyDescent="0.3">
@@ -2653,10 +2619,10 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="B81" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C81" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D81" s="1">
         <x:v>44936.0254104282</x:v>
@@ -2665,7 +2631,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F81" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G81" s="0" t="n">
         <x:v>12</x:v>
@@ -2674,7 +2640,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I81" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:13" x14ac:dyDescent="0.3">
@@ -2682,10 +2648,10 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="B82" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C82" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D82" s="1">
         <x:v>44936.0254104282</x:v>
@@ -2694,7 +2660,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F82" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G82" s="0" t="n">
         <x:v>12</x:v>
@@ -2703,7 +2669,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I82" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="83" spans="1:13" x14ac:dyDescent="0.3">
@@ -2711,10 +2677,10 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="B83" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C83" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D83" s="1">
         <x:v>44936.0254104282</x:v>
@@ -2723,7 +2689,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F83" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G83" s="0" t="n">
         <x:v>12</x:v>
@@ -2732,7 +2698,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I83" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:13" x14ac:dyDescent="0.3">
@@ -2740,10 +2706,10 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="B84" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C84" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D84" s="1">
         <x:v>44936.0254104282</x:v>
@@ -2752,7 +2718,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F84" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G84" s="0" t="n">
         <x:v>12</x:v>
@@ -2761,7 +2727,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I84" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:13" x14ac:dyDescent="0.3">
@@ -2769,10 +2735,10 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="B85" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C85" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D85" s="1">
         <x:v>44936.0254104282</x:v>
@@ -2781,7 +2747,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F85" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G85" s="0" t="n">
         <x:v>12</x:v>
@@ -2790,7 +2756,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I85" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="86" spans="1:13" x14ac:dyDescent="0.3">
@@ -2798,10 +2764,10 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="B86" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C86" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D86" s="1">
         <x:v>44936.0254104282</x:v>
@@ -2810,7 +2776,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F86" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G86" s="0" t="n">
         <x:v>12</x:v>
@@ -2819,7 +2785,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I86" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="1:13" x14ac:dyDescent="0.3">
@@ -2827,10 +2793,10 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="B87" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C87" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D87" s="1">
         <x:v>44936.0254104282</x:v>
@@ -2839,7 +2805,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F87" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G87" s="0" t="n">
         <x:v>12</x:v>
@@ -2848,7 +2814,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I87" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="88" spans="1:13" x14ac:dyDescent="0.3">
@@ -2856,10 +2822,10 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="B88" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C88" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D88" s="1">
         <x:v>44936.0254104282</x:v>
@@ -2868,7 +2834,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F88" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G88" s="0" t="n">
         <x:v>12</x:v>
@@ -2877,7 +2843,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I88" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:13" x14ac:dyDescent="0.3">
@@ -2885,10 +2851,10 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="B89" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C89" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D89" s="1">
         <x:v>44936.0254104282</x:v>
@@ -2897,7 +2863,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F89" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G89" s="0" t="n">
         <x:v>12</x:v>
@@ -2906,7 +2872,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I89" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="1:13" x14ac:dyDescent="0.3">
@@ -2914,10 +2880,10 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="B90" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C90" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D90" s="1">
         <x:v>44936.0254104282</x:v>
@@ -2926,7 +2892,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F90" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G90" s="0" t="n">
         <x:v>12</x:v>
@@ -2935,7 +2901,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I90" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="91" spans="1:13" x14ac:dyDescent="0.3">
@@ -2943,10 +2909,10 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="B91" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C91" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D91" s="1">
         <x:v>44936.0254104282</x:v>
@@ -2955,7 +2921,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F91" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G91" s="0" t="n">
         <x:v>12</x:v>
@@ -2964,7 +2930,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I91" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="92" spans="1:13" x14ac:dyDescent="0.3">
@@ -2972,10 +2938,10 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="B92" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C92" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D92" s="1">
         <x:v>44936.0254104282</x:v>
@@ -2984,7 +2950,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F92" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G92" s="0" t="n">
         <x:v>12</x:v>
@@ -2993,7 +2959,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I92" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="93" spans="1:13" x14ac:dyDescent="0.3">
@@ -3001,10 +2967,10 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="B93" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C93" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D93" s="1">
         <x:v>44936.0254104282</x:v>
@@ -3013,7 +2979,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F93" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G93" s="0" t="n">
         <x:v>12</x:v>
@@ -3022,7 +2988,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I93" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="94" spans="1:13" x14ac:dyDescent="0.3">
@@ -3030,10 +2996,10 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="B94" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C94" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D94" s="1">
         <x:v>44936.0254104282</x:v>
@@ -3042,7 +3008,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F94" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G94" s="0" t="n">
         <x:v>12</x:v>
@@ -3051,7 +3017,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I94" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="95" spans="1:13" x14ac:dyDescent="0.3">
@@ -3059,10 +3025,10 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="B95" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C95" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D95" s="1">
         <x:v>44936.0254104282</x:v>
@@ -3071,7 +3037,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F95" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G95" s="0" t="n">
         <x:v>12</x:v>
@@ -3080,7 +3046,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I95" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="96" spans="1:13" x14ac:dyDescent="0.3">
@@ -3088,10 +3054,10 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="B96" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C96" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D96" s="1">
         <x:v>44936.0254104282</x:v>
@@ -3100,7 +3066,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F96" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G96" s="0" t="n">
         <x:v>12</x:v>
@@ -3109,7 +3075,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I96" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="97" spans="1:13" x14ac:dyDescent="0.3">
@@ -3117,10 +3083,10 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="B97" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C97" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D97" s="1">
         <x:v>44936.0254104282</x:v>
@@ -3129,7 +3095,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F97" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G97" s="0" t="n">
         <x:v>12</x:v>
@@ -3138,7 +3104,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I97" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="98" spans="1:13" x14ac:dyDescent="0.3">
@@ -3146,10 +3112,10 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="B98" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C98" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D98" s="1">
         <x:v>44936.0254104282</x:v>
@@ -3158,7 +3124,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F98" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G98" s="0" t="n">
         <x:v>12</x:v>
@@ -3167,7 +3133,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I98" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="99" spans="1:13" x14ac:dyDescent="0.3">
@@ -3175,10 +3141,10 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B99" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C99" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D99" s="1">
         <x:v>44936.0254104282</x:v>
@@ -3187,7 +3153,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F99" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G99" s="0" t="n">
         <x:v>12</x:v>
@@ -3196,7 +3162,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I99" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="100" spans="1:13" x14ac:dyDescent="0.3">
@@ -3204,10 +3170,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="B100" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C100" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D100" s="1">
         <x:v>44936.0254104282</x:v>
@@ -3216,7 +3182,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F100" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G100" s="0" t="n">
         <x:v>12</x:v>
@@ -3225,7 +3191,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I100" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="1:13" x14ac:dyDescent="0.3">
@@ -3233,10 +3199,10 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="B101" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C101" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D101" s="1">
         <x:v>44936.0254104282</x:v>
@@ -3245,7 +3211,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F101" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G101" s="0" t="n">
         <x:v>12</x:v>
@@ -3254,7 +3220,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I101" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="102" spans="1:13" x14ac:dyDescent="0.3">
@@ -3262,10 +3228,10 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="B102" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C102" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D102" s="1">
         <x:v>44936.0254104282</x:v>
@@ -3274,7 +3240,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F102" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G102" s="0" t="n">
         <x:v>12</x:v>
@@ -3283,7 +3249,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I102" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="103" spans="1:13" x14ac:dyDescent="0.3">
@@ -3291,10 +3257,10 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B103" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C103" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D103" s="1">
         <x:v>44936.0254104282</x:v>
@@ -3303,7 +3269,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F103" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G103" s="0" t="n">
         <x:v>12</x:v>
@@ -3312,7 +3278,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I103" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="104" spans="1:13" x14ac:dyDescent="0.3">
@@ -3320,10 +3286,10 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="B104" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C104" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D104" s="1">
         <x:v>44936.0254104282</x:v>
@@ -3332,7 +3298,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F104" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G104" s="0" t="n">
         <x:v>12</x:v>
@@ -3341,7 +3307,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I104" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="105" spans="1:13" x14ac:dyDescent="0.3">
@@ -3349,10 +3315,10 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="B105" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C105" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D105" s="1">
         <x:v>44936.0254104282</x:v>
@@ -3361,7 +3327,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F105" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G105" s="0" t="n">
         <x:v>12</x:v>
@@ -3370,7 +3336,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I105" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="106" spans="1:13" x14ac:dyDescent="0.3">
@@ -3378,10 +3344,10 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="B106" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C106" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D106" s="1">
         <x:v>44936.0254104282</x:v>
@@ -3390,7 +3356,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F106" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G106" s="0" t="n">
         <x:v>12</x:v>
@@ -3399,7 +3365,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I106" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="107" spans="1:13" x14ac:dyDescent="0.3">
@@ -3407,10 +3373,10 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="B107" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C107" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D107" s="1">
         <x:v>44936.0254104282</x:v>
@@ -3419,7 +3385,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F107" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G107" s="0" t="n">
         <x:v>12</x:v>
@@ -3428,7 +3394,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I107" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="108" spans="1:13" x14ac:dyDescent="0.3">
@@ -3436,10 +3402,10 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="B108" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C108" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D108" s="1">
         <x:v>44936.0254104282</x:v>
@@ -3448,7 +3414,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F108" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G108" s="0" t="n">
         <x:v>12</x:v>
@@ -3457,7 +3423,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I108" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="109" spans="1:13" x14ac:dyDescent="0.3">
@@ -3465,10 +3431,10 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="B109" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C109" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D109" s="1">
         <x:v>44936.0254104282</x:v>
@@ -3477,7 +3443,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F109" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G109" s="0" t="n">
         <x:v>12</x:v>
@@ -3486,7 +3452,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I109" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="110" spans="1:13" x14ac:dyDescent="0.3">
@@ -3494,10 +3460,10 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="B110" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C110" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D110" s="1">
         <x:v>44936.0254104282</x:v>
@@ -3506,7 +3472,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F110" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G110" s="0" t="n">
         <x:v>12</x:v>
@@ -3515,7 +3481,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I110" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="111" spans="1:13" x14ac:dyDescent="0.3">
@@ -3523,10 +3489,10 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="B111" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C111" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D111" s="1">
         <x:v>44936.0254104282</x:v>
@@ -3535,7 +3501,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F111" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G111" s="0" t="n">
         <x:v>12</x:v>
@@ -3544,7 +3510,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I111" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="112" spans="1:13" x14ac:dyDescent="0.3">
@@ -3552,10 +3518,10 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="B112" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C112" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D112" s="1">
         <x:v>44936.0254104282</x:v>
@@ -3564,7 +3530,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F112" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G112" s="0" t="n">
         <x:v>12</x:v>
@@ -3573,7 +3539,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I112" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="113" spans="1:13" x14ac:dyDescent="0.3">
@@ -3581,10 +3547,10 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="B113" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C113" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D113" s="1">
         <x:v>44936.0254104282</x:v>
@@ -3593,7 +3559,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F113" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G113" s="0" t="n">
         <x:v>12</x:v>
@@ -3602,7 +3568,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I113" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="114" spans="1:13" x14ac:dyDescent="0.3">
@@ -3610,10 +3576,10 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="B114" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C114" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D114" s="1">
         <x:v>44936.0254104282</x:v>
@@ -3622,7 +3588,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F114" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G114" s="0" t="n">
         <x:v>12</x:v>
@@ -3631,7 +3597,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I114" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:13" x14ac:dyDescent="0.3">
@@ -3639,10 +3605,10 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="B115" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C115" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D115" s="1">
         <x:v>44936.0254104282</x:v>
@@ -3651,7 +3617,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F115" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G115" s="0" t="n">
         <x:v>12</x:v>
@@ -3660,7 +3626,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I115" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="116" spans="1:13" x14ac:dyDescent="0.3">
@@ -3668,10 +3634,10 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="B116" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C116" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D116" s="1">
         <x:v>44936.0254104282</x:v>
@@ -3680,7 +3646,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F116" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G116" s="0" t="n">
         <x:v>12</x:v>
@@ -3689,7 +3655,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I116" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="117" spans="1:13" x14ac:dyDescent="0.3">
@@ -3697,10 +3663,10 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B117" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C117" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D117" s="1">
         <x:v>44936.0254104282</x:v>
@@ -3709,7 +3675,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F117" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G117" s="0" t="n">
         <x:v>12</x:v>
@@ -3718,7 +3684,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I117" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="118" spans="1:13" x14ac:dyDescent="0.3">
@@ -3726,10 +3692,10 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="B118" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C118" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D118" s="1">
         <x:v>44936.0254104282</x:v>
@@ -3738,7 +3704,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F118" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G118" s="0" t="n">
         <x:v>12</x:v>
@@ -3747,7 +3713,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I118" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="119" spans="1:13" x14ac:dyDescent="0.3">
@@ -3755,10 +3721,10 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="B119" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C119" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D119" s="1">
         <x:v>44936.0254104282</x:v>
@@ -3767,7 +3733,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F119" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G119" s="0" t="n">
         <x:v>12</x:v>
@@ -3776,7 +3742,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I119" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="120" spans="1:13" x14ac:dyDescent="0.3">
@@ -3784,10 +3750,10 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="B120" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C120" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D120" s="1">
         <x:v>44936.0254104282</x:v>
@@ -3796,7 +3762,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F120" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G120" s="0" t="n">
         <x:v>12</x:v>
@@ -3805,7 +3771,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I120" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="121" spans="1:13" x14ac:dyDescent="0.3">
@@ -3813,10 +3779,10 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="B121" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C121" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D121" s="1">
         <x:v>44936.0254104282</x:v>
@@ -3825,7 +3791,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F121" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G121" s="0" t="n">
         <x:v>12</x:v>
@@ -3834,7 +3800,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I121" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="122" spans="1:13" x14ac:dyDescent="0.3">
@@ -3842,10 +3808,10 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="B122" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C122" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D122" s="1">
         <x:v>44936.0254104282</x:v>
@@ -3854,7 +3820,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F122" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G122" s="0" t="n">
         <x:v>12</x:v>
@@ -3863,7 +3829,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I122" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="123" spans="1:13" x14ac:dyDescent="0.3">
@@ -3871,10 +3837,10 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="B123" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C123" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D123" s="1">
         <x:v>44936.0254104282</x:v>
@@ -3883,7 +3849,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F123" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G123" s="0" t="n">
         <x:v>12</x:v>
@@ -3892,7 +3858,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I123" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="124" spans="1:13" x14ac:dyDescent="0.3">
@@ -3900,10 +3866,10 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="B124" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C124" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D124" s="1">
         <x:v>44936.0254104282</x:v>
@@ -3912,7 +3878,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F124" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G124" s="0" t="n">
         <x:v>12</x:v>
@@ -3921,7 +3887,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I124" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="125" spans="1:13" x14ac:dyDescent="0.3">
@@ -3929,10 +3895,10 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="B125" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C125" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D125" s="1">
         <x:v>44936.0254104282</x:v>
@@ -3941,7 +3907,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F125" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G125" s="0" t="n">
         <x:v>12</x:v>
@@ -3950,7 +3916,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I125" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="126" spans="1:13" x14ac:dyDescent="0.3">
@@ -3958,10 +3924,10 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="B126" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C126" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D126" s="1">
         <x:v>44936.0254104282</x:v>
@@ -3970,7 +3936,7 @@
         <x:v>44936.0254104282</x:v>
       </x:c>
       <x:c r="F126" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G126" s="0" t="n">
         <x:v>12</x:v>
@@ -3979,7 +3945,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I126" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="127" spans="1:13">
@@ -3987,10 +3953,10 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="B127" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C127" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D127" s="1">
         <x:v>44936.4926602199</x:v>
@@ -3999,7 +3965,7 @@
         <x:v>44936.4926602199</x:v>
       </x:c>
       <x:c r="F127" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G127" s="0" t="n">
         <x:v>123</x:v>
@@ -4008,7 +3974,7 @@
         <x:v>1234</x:v>
       </x:c>
       <x:c r="I127" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="128" spans="1:13">
@@ -4016,10 +3982,10 @@
         <x:v>128</x:v>
       </x:c>
       <x:c r="B128" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C128" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D128" s="1">
         <x:v>44936.4943558102</x:v>
@@ -4028,7 +3994,7 @@
         <x:v>44936.4943558102</x:v>
       </x:c>
       <x:c r="F128" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G128" s="0" t="n">
         <x:v>12</x:v>
@@ -4037,7 +4003,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="I128" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="129" spans="1:13">
@@ -4045,10 +4011,10 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="B129" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C129" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D129" s="1">
         <x:v>44936.4984741435</x:v>
@@ -4057,7 +4023,7 @@
         <x:v>44936.4984741435</x:v>
       </x:c>
       <x:c r="F129" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G129" s="0" t="n">
         <x:v>12</x:v>
@@ -4066,7 +4032,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="I129" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="130" spans="1:13">
@@ -4074,10 +4040,10 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="B130" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C130" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D130" s="1">
         <x:v>44936.4989140162</x:v>
@@ -4086,7 +4052,7 @@
         <x:v>44936.4989140162</x:v>
       </x:c>
       <x:c r="F130" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G130" s="0" t="n">
         <x:v>12</x:v>
@@ -4095,7 +4061,7 @@
         <x:v>200</x:v>
       </x:c>
       <x:c r="I130" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="131" spans="1:13">

--- a/Store/wwwroot/Bd.xlsx
+++ b/Store/wwwroot/Bd.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <x:si>
     <x:t>Sasha</x:t>
   </x:si>
@@ -53,12 +53,6 @@
   </x:si>
   <x:si>
     <x:t>Kharkiv</x:t>
-  </x:si>
-  <x:si>
-    <x:t>asdasdasd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lviv</x:t>
   </x:si>
   <x:si>
     <x:t>shgwyq</x:t>
@@ -548,33 +542,8 @@
       </x:c>
     </x:row>
     <x:row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <x:c r="A8" s="0" t="n">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="B8" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="C8" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D8" s="1">
-        <x:v>44936.0254104282</x:v>
-      </x:c>
-      <x:c r="E8" s="1">
-        <x:v>44936.0254104282</x:v>
-      </x:c>
-      <x:c r="F8" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="G8" s="0" t="n">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="H8" s="0" t="n">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="I8" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
+      <x:c r="D8" s="1" t="s"/>
+      <x:c r="E8" s="1" t="s"/>
     </x:row>
     <x:row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <x:c r="A9" s="0" t="n">
@@ -3920,33 +3889,8 @@
       </x:c>
     </x:row>
     <x:row r="126" spans="1:13" x14ac:dyDescent="0.3">
-      <x:c r="A126" s="0" t="n">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="B126" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="C126" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D126" s="1">
-        <x:v>44936.0254104282</x:v>
-      </x:c>
-      <x:c r="E126" s="1">
-        <x:v>44936.0254104282</x:v>
-      </x:c>
-      <x:c r="F126" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="G126" s="0" t="n">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="H126" s="0" t="n">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="I126" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
+      <x:c r="D126" s="1" t="s"/>
+      <x:c r="E126" s="1" t="s"/>
     </x:row>
     <x:row r="127" spans="1:13">
       <x:c r="A127" s="0" t="n">
@@ -3978,33 +3922,8 @@
       </x:c>
     </x:row>
     <x:row r="128" spans="1:13">
-      <x:c r="A128" s="0" t="n">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="B128" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C128" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D128" s="1">
-        <x:v>44936.4943558102</x:v>
-      </x:c>
-      <x:c r="E128" s="1">
-        <x:v>44936.4943558102</x:v>
-      </x:c>
-      <x:c r="F128" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="G128" s="0" t="n">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="H128" s="0" t="n">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="I128" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
+      <x:c r="D128" s="1" t="s"/>
+      <x:c r="E128" s="1" t="s"/>
     </x:row>
     <x:row r="129" spans="1:13">
       <x:c r="A129" s="0" t="n">
@@ -4014,7 +3933,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C129" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D129" s="1">
         <x:v>44936.4984741435</x:v>
@@ -4032,7 +3951,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="I129" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="130" spans="1:13">
@@ -4043,7 +3962,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C130" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D130" s="1">
         <x:v>44936.4989140162</x:v>
@@ -4052,7 +3971,7 @@
         <x:v>44936.4989140162</x:v>
       </x:c>
       <x:c r="F130" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G130" s="0" t="n">
         <x:v>12</x:v>

--- a/Store/wwwroot/Bd.xlsx
+++ b/Store/wwwroot/Bd.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <x:si>
     <x:t>Sasha</x:t>
   </x:si>
@@ -40,6 +40,9 @@
     <x:t>івап</x:t>
   </x:si>
   <x:si>
+    <x:t>Anton</x:t>
+  </x:si>
+  <x:si>
     <x:t>фів</x:t>
   </x:si>
   <x:si>
@@ -47,6 +50,12 @@
   </x:si>
   <x:si>
     <x:t>іфів</x:t>
+  </x:si>
+  <x:si>
+    <x:t>John</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jsda</x:t>
   </x:si>
   <x:si>
     <x:t>sdnaklnlwd</x:t>
@@ -58,10 +67,19 @@
     <x:t>shgwyq</x:t>
   </x:si>
   <x:si>
-    <x:t>Dsdffw</x:t>
+    <x:t>Maxim</x:t>
   </x:si>
   <x:si>
-    <x:t>Maxim</x:t>
+    <x:t>Ivan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jdsdfa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vasia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Los Vegas</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -459,19 +477,19 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D5" s="1">
-        <x:v>44936.0252813194</x:v>
+        <x:v>44936.0252777778</x:v>
       </x:c>
       <x:c r="E5" s="1">
-        <x:v>44936.0252813194</x:v>
+        <x:v>44955.5033328704</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G5" s="0" t="n">
         <x:v>12</x:v>
@@ -480,7 +498,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I5" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -488,10 +506,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D6" s="1">
         <x:v>44936.0254050926</x:v>
@@ -509,7 +527,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I6" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -517,10 +535,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D7" s="1">
         <x:v>44936.0254104282</x:v>
@@ -538,7 +556,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I7" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -546,49 +564,24 @@
       <x:c r="E8" s="1" t="s"/>
     </x:row>
     <x:row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <x:c r="A9" s="0" t="n">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B9" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="C9" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D9" s="1">
-        <x:v>44936.0254104282</x:v>
-      </x:c>
-      <x:c r="E9" s="1">
-        <x:v>44936.0254104282</x:v>
-      </x:c>
-      <x:c r="F9" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="G9" s="0" t="n">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="H9" s="0" t="n">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="I9" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
+      <x:c r="D9" s="1" t="s"/>
+      <x:c r="E9" s="1" t="s"/>
     </x:row>
     <x:row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <x:c r="A10" s="0" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D10" s="1">
-        <x:v>44936.0254104282</x:v>
+        <x:v>44936.0254050926</x:v>
       </x:c>
       <x:c r="E10" s="1">
-        <x:v>44936.0254104282</x:v>
+        <x:v>44954.7224036343</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
         <x:v>2</x:v>
@@ -600,7 +593,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I10" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -608,10 +601,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D11" s="1">
         <x:v>44936.0254104282</x:v>
@@ -629,7 +622,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I11" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -637,91 +630,16 @@
       <x:c r="E12" s="1" t="s"/>
     </x:row>
     <x:row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <x:c r="A13" s="0" t="n">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="B13" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="C13" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D13" s="1">
-        <x:v>44936.0254104282</x:v>
-      </x:c>
-      <x:c r="E13" s="1">
-        <x:v>44936.0254104282</x:v>
-      </x:c>
-      <x:c r="F13" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="G13" s="0" t="n">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="H13" s="0" t="n">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="I13" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
+      <x:c r="D13" s="1" t="s"/>
+      <x:c r="E13" s="1" t="s"/>
     </x:row>
     <x:row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <x:c r="A14" s="0" t="n">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="B14" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="C14" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D14" s="1">
-        <x:v>44936.0254104282</x:v>
-      </x:c>
-      <x:c r="E14" s="1">
-        <x:v>44936.0254104282</x:v>
-      </x:c>
-      <x:c r="F14" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="G14" s="0" t="n">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="H14" s="0" t="n">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="I14" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
+      <x:c r="D14" s="1" t="s"/>
+      <x:c r="E14" s="1" t="s"/>
     </x:row>
     <x:row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <x:c r="A15" s="0" t="n">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="B15" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="C15" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D15" s="1">
-        <x:v>44936.0254104282</x:v>
-      </x:c>
-      <x:c r="E15" s="1">
-        <x:v>44936.0254104282</x:v>
-      </x:c>
-      <x:c r="F15" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="G15" s="0" t="n">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="H15" s="0" t="n">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="I15" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
+      <x:c r="D15" s="1" t="s"/>
+      <x:c r="E15" s="1" t="s"/>
     </x:row>
     <x:row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <x:c r="D16" s="1" t="s"/>
@@ -732,10 +650,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D17" s="1">
         <x:v>44936.0254104282</x:v>
@@ -753,7 +671,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I17" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:13" x14ac:dyDescent="0.3">
@@ -761,10 +679,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D18" s="1">
         <x:v>44936.0254104282</x:v>
@@ -782,7 +700,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I18" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:13" x14ac:dyDescent="0.3">
@@ -790,10 +708,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D19" s="1">
         <x:v>44936.0254104282</x:v>
@@ -811,7 +729,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I19" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:13" x14ac:dyDescent="0.3">
@@ -819,16 +737,16 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D20" s="1">
-        <x:v>44936.0254104282</x:v>
+        <x:v>44936.0254050926</x:v>
       </x:c>
       <x:c r="E20" s="1">
-        <x:v>44936.0254104282</x:v>
+        <x:v>44955.5101412616</x:v>
       </x:c>
       <x:c r="F20" s="0" t="s">
         <x:v>2</x:v>
@@ -840,7 +758,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I20" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:13" x14ac:dyDescent="0.3">
@@ -848,10 +766,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D21" s="1">
         <x:v>44936.0254104282</x:v>
@@ -869,7 +787,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I21" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:13" x14ac:dyDescent="0.3">
@@ -877,10 +795,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D22" s="1">
         <x:v>44936.0254104282</x:v>
@@ -898,7 +816,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I22" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:13" x14ac:dyDescent="0.3">
@@ -906,10 +824,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D23" s="1">
         <x:v>44936.0254104282</x:v>
@@ -927,7 +845,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I23" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:13" x14ac:dyDescent="0.3">
@@ -935,10 +853,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D24" s="1">
         <x:v>44936.0254104282</x:v>
@@ -956,7 +874,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I24" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:13" x14ac:dyDescent="0.3">
@@ -964,10 +882,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D25" s="1">
         <x:v>44936.0254104282</x:v>
@@ -985,7 +903,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I25" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:13" x14ac:dyDescent="0.3">
@@ -993,10 +911,10 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D26" s="1">
         <x:v>44936.0254104282</x:v>
@@ -1014,47 +932,22 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I26" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <x:c r="A27" s="0" t="n">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="B27" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="C27" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D27" s="1">
-        <x:v>44936.0254104282</x:v>
-      </x:c>
-      <x:c r="E27" s="1">
-        <x:v>44936.0254104282</x:v>
-      </x:c>
-      <x:c r="F27" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="G27" s="0" t="n">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="H27" s="0" t="n">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="I27" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
+      <x:c r="D27" s="1" t="s"/>
+      <x:c r="E27" s="1" t="s"/>
     </x:row>
     <x:row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <x:c r="A28" s="0" t="n">
         <x:v>28</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D28" s="1">
         <x:v>44936.0254104282</x:v>
@@ -1072,7 +965,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I28" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:13" x14ac:dyDescent="0.3">
@@ -1080,10 +973,10 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D29" s="1">
         <x:v>44936.0254104282</x:v>
@@ -1101,7 +994,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I29" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:13" x14ac:dyDescent="0.3">
@@ -1109,10 +1002,10 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D30" s="1">
         <x:v>44936.0254104282</x:v>
@@ -1130,7 +1023,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I30" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:13" x14ac:dyDescent="0.3">
@@ -1138,10 +1031,10 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D31" s="1">
         <x:v>44936.0254104282</x:v>
@@ -1159,7 +1052,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I31" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:13" x14ac:dyDescent="0.3">
@@ -1167,10 +1060,10 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D32" s="1">
         <x:v>44936.0254104282</x:v>
@@ -1188,7 +1081,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I32" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:13" x14ac:dyDescent="0.3">
@@ -1196,10 +1089,10 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C33" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D33" s="1">
         <x:v>44936.0254104282</x:v>
@@ -1217,7 +1110,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I33" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:13" x14ac:dyDescent="0.3">
@@ -1225,10 +1118,10 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C34" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D34" s="1">
         <x:v>44936.0254104282</x:v>
@@ -1246,7 +1139,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I34" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:13" x14ac:dyDescent="0.3">
@@ -1254,10 +1147,10 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C35" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D35" s="1">
         <x:v>44936.0254104282</x:v>
@@ -1275,7 +1168,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I35" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:13" x14ac:dyDescent="0.3">
@@ -1283,10 +1176,10 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C36" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D36" s="1">
         <x:v>44936.0254104282</x:v>
@@ -1304,7 +1197,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I36" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:13" x14ac:dyDescent="0.3">
@@ -1312,10 +1205,10 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C37" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D37" s="1">
         <x:v>44936.0254104282</x:v>
@@ -1333,7 +1226,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I37" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:13" x14ac:dyDescent="0.3">
@@ -1341,10 +1234,10 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C38" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D38" s="1">
         <x:v>44936.0254104282</x:v>
@@ -1362,7 +1255,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I38" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:13" x14ac:dyDescent="0.3">
@@ -1370,10 +1263,10 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C39" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D39" s="1">
         <x:v>44936.0254104282</x:v>
@@ -1391,7 +1284,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I39" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:13" x14ac:dyDescent="0.3">
@@ -1399,10 +1292,10 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C40" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D40" s="1">
         <x:v>44936.0254104282</x:v>
@@ -1420,7 +1313,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I40" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:13" x14ac:dyDescent="0.3">
@@ -1428,10 +1321,10 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C41" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D41" s="1">
         <x:v>44936.0254104282</x:v>
@@ -1449,7 +1342,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I41" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:13" x14ac:dyDescent="0.3">
@@ -1457,10 +1350,10 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C42" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D42" s="1">
         <x:v>44936.0254104282</x:v>
@@ -1478,7 +1371,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I42" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:13" x14ac:dyDescent="0.3">
@@ -1486,10 +1379,10 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C43" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D43" s="1">
         <x:v>44936.0254104282</x:v>
@@ -1507,7 +1400,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I43" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:13" x14ac:dyDescent="0.3">
@@ -1515,10 +1408,10 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C44" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D44" s="1">
         <x:v>44936.0254104282</x:v>
@@ -1536,7 +1429,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I44" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:13" x14ac:dyDescent="0.3">
@@ -1544,10 +1437,10 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C45" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D45" s="1">
         <x:v>44936.0254104282</x:v>
@@ -1565,7 +1458,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I45" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:13" x14ac:dyDescent="0.3">
@@ -1573,10 +1466,10 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C46" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D46" s="1">
         <x:v>44936.0254104282</x:v>
@@ -1594,7 +1487,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I46" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:13" x14ac:dyDescent="0.3">
@@ -1602,10 +1495,10 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C47" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D47" s="1">
         <x:v>44936.0254104282</x:v>
@@ -1623,7 +1516,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I47" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:13" x14ac:dyDescent="0.3">
@@ -1631,10 +1524,10 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C48" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D48" s="1">
         <x:v>44936.0254104282</x:v>
@@ -1652,7 +1545,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I48" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:13" x14ac:dyDescent="0.3">
@@ -1660,10 +1553,10 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C49" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D49" s="1">
         <x:v>44936.0254104282</x:v>
@@ -1681,7 +1574,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I49" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:13" x14ac:dyDescent="0.3">
@@ -1689,10 +1582,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C50" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D50" s="1">
         <x:v>44936.0254104282</x:v>
@@ -1710,7 +1603,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I50" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:13" x14ac:dyDescent="0.3">
@@ -1718,10 +1611,10 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C51" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D51" s="1">
         <x:v>44936.0254104282</x:v>
@@ -1739,7 +1632,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I51" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:13" x14ac:dyDescent="0.3">
@@ -1747,10 +1640,10 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C52" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D52" s="1">
         <x:v>44936.0254104282</x:v>
@@ -1768,7 +1661,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I52" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:13" x14ac:dyDescent="0.3">
@@ -1776,10 +1669,10 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C53" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D53" s="1">
         <x:v>44936.0254104282</x:v>
@@ -1797,7 +1690,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I53" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:13" x14ac:dyDescent="0.3">
@@ -1805,10 +1698,10 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C54" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D54" s="1">
         <x:v>44936.0254104282</x:v>
@@ -1826,7 +1719,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I54" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:13" x14ac:dyDescent="0.3">
@@ -1834,10 +1727,10 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C55" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D55" s="1">
         <x:v>44936.0254104282</x:v>
@@ -1855,7 +1748,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I55" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:13" x14ac:dyDescent="0.3">
@@ -1863,10 +1756,10 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C56" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D56" s="1">
         <x:v>44936.0254104282</x:v>
@@ -1884,7 +1777,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I56" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:13" x14ac:dyDescent="0.3">
@@ -1892,10 +1785,10 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C57" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D57" s="1">
         <x:v>44936.0254104282</x:v>
@@ -1913,7 +1806,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I57" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:13" x14ac:dyDescent="0.3">
@@ -1921,10 +1814,10 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C58" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D58" s="1">
         <x:v>44936.0254104282</x:v>
@@ -1942,7 +1835,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I58" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:13" x14ac:dyDescent="0.3">
@@ -1950,10 +1843,10 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C59" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D59" s="1">
         <x:v>44936.0254104282</x:v>
@@ -1971,7 +1864,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I59" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:13" x14ac:dyDescent="0.3">
@@ -1979,10 +1872,10 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C60" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D60" s="1">
         <x:v>44936.0254104282</x:v>
@@ -2000,7 +1893,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I60" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:13" x14ac:dyDescent="0.3">
@@ -2008,10 +1901,10 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C61" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D61" s="1">
         <x:v>44936.0254104282</x:v>
@@ -2029,7 +1922,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I61" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:13" x14ac:dyDescent="0.3">
@@ -2037,10 +1930,10 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C62" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D62" s="1">
         <x:v>44936.0254104282</x:v>
@@ -2058,7 +1951,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I62" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:13" x14ac:dyDescent="0.3">
@@ -2066,10 +1959,10 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C63" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D63" s="1">
         <x:v>44936.0254104282</x:v>
@@ -2087,7 +1980,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I63" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:13" x14ac:dyDescent="0.3">
@@ -2095,10 +1988,10 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C64" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D64" s="1">
         <x:v>44936.0254104282</x:v>
@@ -2116,7 +2009,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I64" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:13" x14ac:dyDescent="0.3">
@@ -2124,10 +2017,10 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C65" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D65" s="1">
         <x:v>44936.0254104282</x:v>
@@ -2145,7 +2038,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I65" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:13" x14ac:dyDescent="0.3">
@@ -2153,10 +2046,10 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C66" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D66" s="1">
         <x:v>44936.0254104282</x:v>
@@ -2174,7 +2067,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I66" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:13" x14ac:dyDescent="0.3">
@@ -2182,10 +2075,10 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="B67" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C67" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D67" s="1">
         <x:v>44936.0254104282</x:v>
@@ -2203,7 +2096,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I67" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:13" x14ac:dyDescent="0.3">
@@ -2211,10 +2104,10 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="B68" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C68" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D68" s="1">
         <x:v>44936.0254104282</x:v>
@@ -2232,7 +2125,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I68" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:13" x14ac:dyDescent="0.3">
@@ -2240,10 +2133,10 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="B69" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C69" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D69" s="1">
         <x:v>44936.0254104282</x:v>
@@ -2261,7 +2154,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I69" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:13" x14ac:dyDescent="0.3">
@@ -2269,10 +2162,10 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="B70" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C70" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D70" s="1">
         <x:v>44936.0254104282</x:v>
@@ -2290,7 +2183,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I70" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:13" x14ac:dyDescent="0.3">
@@ -2298,10 +2191,10 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="B71" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C71" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D71" s="1">
         <x:v>44936.0254104282</x:v>
@@ -2319,7 +2212,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I71" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:13" x14ac:dyDescent="0.3">
@@ -2327,10 +2220,10 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="B72" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C72" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D72" s="1">
         <x:v>44936.0254104282</x:v>
@@ -2348,7 +2241,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I72" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:13" x14ac:dyDescent="0.3">
@@ -2356,10 +2249,10 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="B73" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C73" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D73" s="1">
         <x:v>44936.0254104282</x:v>
@@ -2377,7 +2270,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I73" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:13" x14ac:dyDescent="0.3">
@@ -2385,10 +2278,10 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="B74" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C74" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D74" s="1">
         <x:v>44936.0254104282</x:v>
@@ -2406,7 +2299,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I74" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:13" x14ac:dyDescent="0.3">
@@ -2414,10 +2307,10 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="B75" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C75" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D75" s="1">
         <x:v>44936.0254104282</x:v>
@@ -2435,7 +2328,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I75" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:13" x14ac:dyDescent="0.3">
@@ -2443,10 +2336,10 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="B76" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C76" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D76" s="1">
         <x:v>44936.0254104282</x:v>
@@ -2464,7 +2357,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I76" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:13" x14ac:dyDescent="0.3">
@@ -2472,10 +2365,10 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="B77" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C77" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D77" s="1">
         <x:v>44936.0254104282</x:v>
@@ -2493,7 +2386,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I77" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:13" x14ac:dyDescent="0.3">
@@ -2501,10 +2394,10 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="B78" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C78" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D78" s="1">
         <x:v>44936.0254104282</x:v>
@@ -2522,7 +2415,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I78" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:13" x14ac:dyDescent="0.3">
@@ -2530,10 +2423,10 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="B79" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C79" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D79" s="1">
         <x:v>44936.0254104282</x:v>
@@ -2551,7 +2444,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I79" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:13" x14ac:dyDescent="0.3">
@@ -2559,10 +2452,10 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="B80" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C80" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D80" s="1">
         <x:v>44936.0254104282</x:v>
@@ -2580,7 +2473,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I80" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:13" x14ac:dyDescent="0.3">
@@ -2588,10 +2481,10 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="B81" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C81" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D81" s="1">
         <x:v>44936.0254104282</x:v>
@@ -2609,7 +2502,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I81" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:13" x14ac:dyDescent="0.3">
@@ -2617,10 +2510,10 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="B82" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C82" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D82" s="1">
         <x:v>44936.0254104282</x:v>
@@ -2638,7 +2531,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I82" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="83" spans="1:13" x14ac:dyDescent="0.3">
@@ -2646,10 +2539,10 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="B83" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C83" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D83" s="1">
         <x:v>44936.0254104282</x:v>
@@ -2667,7 +2560,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I83" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:13" x14ac:dyDescent="0.3">
@@ -2675,10 +2568,10 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="B84" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C84" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D84" s="1">
         <x:v>44936.0254104282</x:v>
@@ -2696,7 +2589,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I84" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:13" x14ac:dyDescent="0.3">
@@ -2704,10 +2597,10 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="B85" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C85" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D85" s="1">
         <x:v>44936.0254104282</x:v>
@@ -2725,7 +2618,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I85" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="86" spans="1:13" x14ac:dyDescent="0.3">
@@ -2733,10 +2626,10 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="B86" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C86" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D86" s="1">
         <x:v>44936.0254104282</x:v>
@@ -2754,7 +2647,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I86" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="1:13" x14ac:dyDescent="0.3">
@@ -2762,10 +2655,10 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="B87" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C87" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D87" s="1">
         <x:v>44936.0254104282</x:v>
@@ -2783,7 +2676,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I87" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="88" spans="1:13" x14ac:dyDescent="0.3">
@@ -2791,10 +2684,10 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="B88" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C88" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D88" s="1">
         <x:v>44936.0254104282</x:v>
@@ -2812,7 +2705,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I88" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:13" x14ac:dyDescent="0.3">
@@ -2820,10 +2713,10 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="B89" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C89" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D89" s="1">
         <x:v>44936.0254104282</x:v>
@@ -2841,7 +2734,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I89" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="1:13" x14ac:dyDescent="0.3">
@@ -2849,10 +2742,10 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="B90" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C90" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D90" s="1">
         <x:v>44936.0254104282</x:v>
@@ -2870,7 +2763,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I90" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="91" spans="1:13" x14ac:dyDescent="0.3">
@@ -2878,10 +2771,10 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="B91" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C91" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D91" s="1">
         <x:v>44936.0254104282</x:v>
@@ -2899,7 +2792,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I91" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="92" spans="1:13" x14ac:dyDescent="0.3">
@@ -2907,10 +2800,10 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="B92" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C92" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D92" s="1">
         <x:v>44936.0254104282</x:v>
@@ -2928,7 +2821,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I92" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="93" spans="1:13" x14ac:dyDescent="0.3">
@@ -2936,10 +2829,10 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="B93" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C93" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D93" s="1">
         <x:v>44936.0254104282</x:v>
@@ -2957,7 +2850,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I93" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="94" spans="1:13" x14ac:dyDescent="0.3">
@@ -2965,10 +2858,10 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="B94" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C94" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D94" s="1">
         <x:v>44936.0254104282</x:v>
@@ -2986,7 +2879,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I94" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="95" spans="1:13" x14ac:dyDescent="0.3">
@@ -2994,10 +2887,10 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="B95" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C95" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D95" s="1">
         <x:v>44936.0254104282</x:v>
@@ -3015,7 +2908,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I95" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="96" spans="1:13" x14ac:dyDescent="0.3">
@@ -3023,10 +2916,10 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="B96" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C96" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D96" s="1">
         <x:v>44936.0254104282</x:v>
@@ -3044,7 +2937,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I96" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="97" spans="1:13" x14ac:dyDescent="0.3">
@@ -3052,10 +2945,10 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="B97" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C97" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D97" s="1">
         <x:v>44936.0254104282</x:v>
@@ -3073,7 +2966,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I97" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="98" spans="1:13" x14ac:dyDescent="0.3">
@@ -3081,10 +2974,10 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="B98" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C98" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D98" s="1">
         <x:v>44936.0254104282</x:v>
@@ -3102,7 +2995,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I98" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="99" spans="1:13" x14ac:dyDescent="0.3">
@@ -3110,10 +3003,10 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="B99" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C99" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D99" s="1">
         <x:v>44936.0254104282</x:v>
@@ -3131,7 +3024,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I99" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="100" spans="1:13" x14ac:dyDescent="0.3">
@@ -3139,10 +3032,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="B100" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C100" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D100" s="1">
         <x:v>44936.0254104282</x:v>
@@ -3160,7 +3053,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I100" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="1:13" x14ac:dyDescent="0.3">
@@ -3168,10 +3061,10 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="B101" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C101" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D101" s="1">
         <x:v>44936.0254104282</x:v>
@@ -3189,7 +3082,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I101" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="102" spans="1:13" x14ac:dyDescent="0.3">
@@ -3197,10 +3090,10 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="B102" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C102" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D102" s="1">
         <x:v>44936.0254104282</x:v>
@@ -3218,7 +3111,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I102" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="103" spans="1:13" x14ac:dyDescent="0.3">
@@ -3226,10 +3119,10 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="B103" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C103" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D103" s="1">
         <x:v>44936.0254104282</x:v>
@@ -3247,7 +3140,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I103" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="104" spans="1:13" x14ac:dyDescent="0.3">
@@ -3255,10 +3148,10 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="B104" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C104" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D104" s="1">
         <x:v>44936.0254104282</x:v>
@@ -3276,7 +3169,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I104" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="105" spans="1:13" x14ac:dyDescent="0.3">
@@ -3284,10 +3177,10 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="B105" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C105" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D105" s="1">
         <x:v>44936.0254104282</x:v>
@@ -3305,7 +3198,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I105" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="106" spans="1:13" x14ac:dyDescent="0.3">
@@ -3313,10 +3206,10 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="B106" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C106" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D106" s="1">
         <x:v>44936.0254104282</x:v>
@@ -3334,7 +3227,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I106" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="107" spans="1:13" x14ac:dyDescent="0.3">
@@ -3342,10 +3235,10 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="B107" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C107" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D107" s="1">
         <x:v>44936.0254104282</x:v>
@@ -3363,7 +3256,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I107" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="108" spans="1:13" x14ac:dyDescent="0.3">
@@ -3371,10 +3264,10 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="B108" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C108" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D108" s="1">
         <x:v>44936.0254104282</x:v>
@@ -3392,7 +3285,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I108" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="109" spans="1:13" x14ac:dyDescent="0.3">
@@ -3400,10 +3293,10 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="B109" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C109" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D109" s="1">
         <x:v>44936.0254104282</x:v>
@@ -3421,7 +3314,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I109" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="110" spans="1:13" x14ac:dyDescent="0.3">
@@ -3429,10 +3322,10 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="B110" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C110" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D110" s="1">
         <x:v>44936.0254104282</x:v>
@@ -3450,7 +3343,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I110" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="111" spans="1:13" x14ac:dyDescent="0.3">
@@ -3458,10 +3351,10 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="B111" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C111" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D111" s="1">
         <x:v>44936.0254104282</x:v>
@@ -3479,7 +3372,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I111" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="112" spans="1:13" x14ac:dyDescent="0.3">
@@ -3487,10 +3380,10 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="B112" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C112" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D112" s="1">
         <x:v>44936.0254104282</x:v>
@@ -3508,7 +3401,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I112" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="113" spans="1:13" x14ac:dyDescent="0.3">
@@ -3516,10 +3409,10 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="B113" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C113" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D113" s="1">
         <x:v>44936.0254104282</x:v>
@@ -3537,7 +3430,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I113" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="114" spans="1:13" x14ac:dyDescent="0.3">
@@ -3545,10 +3438,10 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="B114" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C114" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D114" s="1">
         <x:v>44936.0254104282</x:v>
@@ -3566,7 +3459,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I114" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:13" x14ac:dyDescent="0.3">
@@ -3574,10 +3467,10 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="B115" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C115" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D115" s="1">
         <x:v>44936.0254104282</x:v>
@@ -3595,7 +3488,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I115" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="116" spans="1:13" x14ac:dyDescent="0.3">
@@ -3603,10 +3496,10 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="B116" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C116" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D116" s="1">
         <x:v>44936.0254104282</x:v>
@@ -3624,7 +3517,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I116" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="117" spans="1:13" x14ac:dyDescent="0.3">
@@ -3632,10 +3525,10 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B117" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C117" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D117" s="1">
         <x:v>44936.0254104282</x:v>
@@ -3653,7 +3546,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I117" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="118" spans="1:13" x14ac:dyDescent="0.3">
@@ -3661,10 +3554,10 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="B118" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C118" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D118" s="1">
         <x:v>44936.0254104282</x:v>
@@ -3682,7 +3575,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I118" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="119" spans="1:13" x14ac:dyDescent="0.3">
@@ -3690,10 +3583,10 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="B119" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C119" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D119" s="1">
         <x:v>44936.0254104282</x:v>
@@ -3711,7 +3604,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I119" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="120" spans="1:13" x14ac:dyDescent="0.3">
@@ -3719,10 +3612,10 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="B120" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C120" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D120" s="1">
         <x:v>44936.0254104282</x:v>
@@ -3740,7 +3633,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I120" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="121" spans="1:13" x14ac:dyDescent="0.3">
@@ -3748,10 +3641,10 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="B121" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C121" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D121" s="1">
         <x:v>44936.0254104282</x:v>
@@ -3769,7 +3662,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I121" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="122" spans="1:13" x14ac:dyDescent="0.3">
@@ -3777,10 +3670,10 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="B122" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C122" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D122" s="1">
         <x:v>44936.0254104282</x:v>
@@ -3798,7 +3691,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I122" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="123" spans="1:13" x14ac:dyDescent="0.3">
@@ -3806,10 +3699,10 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="B123" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C123" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D123" s="1">
         <x:v>44936.0254104282</x:v>
@@ -3827,7 +3720,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I123" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="124" spans="1:13" x14ac:dyDescent="0.3">
@@ -3835,10 +3728,10 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="B124" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C124" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D124" s="1">
         <x:v>44936.0254104282</x:v>
@@ -3856,7 +3749,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I124" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="125" spans="1:13" x14ac:dyDescent="0.3">
@@ -3864,10 +3757,10 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="B125" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C125" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D125" s="1">
         <x:v>44936.0254104282</x:v>
@@ -3885,7 +3778,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I125" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="126" spans="1:13" x14ac:dyDescent="0.3">
@@ -3900,7 +3793,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C127" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D127" s="1">
         <x:v>44936.4926602199</x:v>
@@ -3918,7 +3811,7 @@
         <x:v>1234</x:v>
       </x:c>
       <x:c r="I127" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="128" spans="1:13">
@@ -3926,33 +3819,8 @@
       <x:c r="E128" s="1" t="s"/>
     </x:row>
     <x:row r="129" spans="1:13">
-      <x:c r="A129" s="0" t="n">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="B129" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C129" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D129" s="1">
-        <x:v>44936.4984741435</x:v>
-      </x:c>
-      <x:c r="E129" s="1">
-        <x:v>44936.4984741435</x:v>
-      </x:c>
-      <x:c r="F129" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="G129" s="0" t="n">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="H129" s="0" t="n">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="I129" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
+      <x:c r="D129" s="1" t="s"/>
+      <x:c r="E129" s="1" t="s"/>
     </x:row>
     <x:row r="130" spans="1:13">
       <x:c r="A130" s="0" t="n">
@@ -3962,7 +3830,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C130" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D130" s="1">
         <x:v>44936.4989140162</x:v>
@@ -3971,7 +3839,7 @@
         <x:v>44936.4989140162</x:v>
       </x:c>
       <x:c r="F130" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G130" s="0" t="n">
         <x:v>12</x:v>
@@ -3980,12 +3848,157 @@
         <x:v>200</x:v>
       </x:c>
       <x:c r="I130" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="131" spans="1:13">
       <x:c r="D131" s="1" t="s"/>
       <x:c r="E131" s="1" t="s"/>
+    </x:row>
+    <x:row r="132" spans="1:13">
+      <x:c r="A132" s="0" t="n">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="B132" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C132" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D132" s="1">
+        <x:v>44954.6527769676</x:v>
+      </x:c>
+      <x:c r="E132" s="1">
+        <x:v>44954.6527769676</x:v>
+      </x:c>
+      <x:c r="F132" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G132" s="0" t="n">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H132" s="0" t="n">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="I132" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="133" spans="1:13">
+      <x:c r="A133" s="0" t="n">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="B133" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C133" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D133" s="1">
+        <x:v>44954.6545721065</x:v>
+      </x:c>
+      <x:c r="E133" s="1">
+        <x:v>44954.6545721065</x:v>
+      </x:c>
+      <x:c r="F133" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G133" s="0" t="n">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H133" s="0" t="n">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="I133" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="134" spans="1:13">
+      <x:c r="A134" s="0" t="n">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="B134" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C134" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D134" s="1">
+        <x:v>44954.6686296181</x:v>
+      </x:c>
+      <x:c r="E134" s="1">
+        <x:v>44954.6686296181</x:v>
+      </x:c>
+      <x:c r="F134" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G134" s="0" t="n">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H134" s="0" t="n">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="I134" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="135" spans="1:13">
+      <x:c r="A135" s="0" t="n">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="B135" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C135" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D135" s="1">
+        <x:v>44955.5027245949</x:v>
+      </x:c>
+      <x:c r="E135" s="1">
+        <x:v>44955.5027245949</x:v>
+      </x:c>
+      <x:c r="F135" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G135" s="0" t="n">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H135" s="0" t="n">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="I135" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="136" spans="1:13">
+      <x:c r="A136" s="0" t="n">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="B136" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C136" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D136" s="1">
+        <x:v>44955.5098546991</x:v>
+      </x:c>
+      <x:c r="E136" s="1">
+        <x:v>44955.5098546991</x:v>
+      </x:c>
+      <x:c r="F136" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G136" s="0" t="n">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H136" s="0" t="n">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="I136" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
